--- a/shared/dmn-rules/service_determination.dmn.xlsx
+++ b/shared/dmn-rules/service_determination.dmn.xlsx
@@ -848,7 +848,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -911,7 +915,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>"MAIN"</t>
@@ -974,7 +982,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>"MAIN"</t>
@@ -1037,7 +1049,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>"MAIN"</t>
@@ -1100,7 +1116,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>"TRUCKING"</t>
@@ -1163,7 +1183,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1226,7 +1250,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1289,7 +1317,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1352,7 +1384,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>"ADDITIONAL"</t>
